--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H2">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I2">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J2">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>6606.236058955139</v>
+        <v>6974.181672112795</v>
       </c>
       <c r="R2">
-        <v>6606.236058955139</v>
+        <v>27896.72668845118</v>
       </c>
       <c r="S2">
-        <v>0.03061681672231795</v>
+        <v>0.03084816622672351</v>
       </c>
       <c r="T2">
-        <v>0.03061681672231795</v>
+        <v>0.01837585995637162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H3">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I3">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J3">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>25476.76059450869</v>
+        <v>27104.75302608509</v>
       </c>
       <c r="R3">
-        <v>25476.76059450869</v>
+        <v>162628.5181565105</v>
       </c>
       <c r="S3">
-        <v>0.1180728788434809</v>
+        <v>0.1198896108809936</v>
       </c>
       <c r="T3">
-        <v>0.1180728788434809</v>
+        <v>0.1071250726987065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H4">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I4">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J4">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>36564.2355624908</v>
+        <v>37305.14722764384</v>
       </c>
       <c r="R4">
-        <v>36564.2355624908</v>
+        <v>223830.8833658631</v>
       </c>
       <c r="S4">
-        <v>0.1694581436112807</v>
+        <v>0.1650079445725312</v>
       </c>
       <c r="T4">
-        <v>0.1694581436112807</v>
+        <v>0.1474396983049916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H5">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I5">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J5">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>36440.97128307787</v>
+        <v>36917.37286628239</v>
       </c>
       <c r="R5">
-        <v>36440.97128307787</v>
+        <v>221504.2371976944</v>
       </c>
       <c r="S5">
-        <v>0.1688868712835112</v>
+        <v>0.1632927429158879</v>
       </c>
       <c r="T5">
-        <v>0.1688868712835112</v>
+        <v>0.1459071126137823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H6">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I6">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J6">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>4968.316158434343</v>
+        <v>5455.805845483277</v>
       </c>
       <c r="R6">
-        <v>4968.316158434343</v>
+        <v>32734.83507289966</v>
       </c>
       <c r="S6">
-        <v>0.02302582346192665</v>
+        <v>0.02413209370429431</v>
       </c>
       <c r="T6">
-        <v>0.02302582346192665</v>
+        <v>0.02156277156500769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H7">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I7">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J7">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>11905.84032138446</v>
+        <v>11961.51777904933</v>
       </c>
       <c r="R7">
-        <v>11905.84032138446</v>
+        <v>47846.07111619734</v>
       </c>
       <c r="S7">
-        <v>0.05517800571944206</v>
+        <v>0.05290812687709043</v>
       </c>
       <c r="T7">
-        <v>0.05517800571944206</v>
+        <v>0.03151669771557178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H8">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J8">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>584.797851530844</v>
+        <v>689.6603959776767</v>
       </c>
       <c r="R8">
-        <v>584.797851530844</v>
+        <v>4137.96237586606</v>
       </c>
       <c r="S8">
-        <v>0.002710264737763095</v>
+        <v>0.003050502486933674</v>
       </c>
       <c r="T8">
-        <v>0.002710264737763095</v>
+        <v>0.002725718252641029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H9">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J9">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>2255.25620439164</v>
+        <v>2680.325174148209</v>
       </c>
       <c r="R9">
-        <v>2255.25620439164</v>
+        <v>24122.92656733388</v>
       </c>
       <c r="S9">
-        <v>0.01045205851797101</v>
+        <v>0.0118556011875078</v>
       </c>
       <c r="T9">
-        <v>0.01045205851797101</v>
+        <v>0.01589001911549267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H10">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J10">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>3236.742709311276</v>
+        <v>3689.018126943665</v>
       </c>
       <c r="R10">
-        <v>3236.742709311276</v>
+        <v>33201.16314249298</v>
       </c>
       <c r="S10">
-        <v>0.01500078977255861</v>
+        <v>0.01631724691778489</v>
       </c>
       <c r="T10">
-        <v>0.01500078977255861</v>
+        <v>0.02186994664673939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H11">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J11">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>3225.831097142427</v>
+        <v>3650.672033856372</v>
       </c>
       <c r="R11">
-        <v>3225.831097142427</v>
+        <v>32856.04830470735</v>
       </c>
       <c r="S11">
-        <v>0.01495021954967568</v>
+        <v>0.0161476346665824</v>
       </c>
       <c r="T11">
-        <v>0.01495021954967568</v>
+        <v>0.02164261596386612</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H12">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J12">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>439.80575160342</v>
+        <v>539.5117874285947</v>
       </c>
       <c r="R12">
-        <v>439.80575160342</v>
+        <v>4855.606086857353</v>
       </c>
       <c r="S12">
-        <v>0.002038294116361464</v>
+        <v>0.002386365896722061</v>
       </c>
       <c r="T12">
-        <v>0.002038294116361464</v>
+        <v>0.00319843752465534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H13">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J13">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>1053.929919924196</v>
+        <v>1182.846314568985</v>
       </c>
       <c r="R13">
-        <v>1053.929919924196</v>
+        <v>7097.077887413912</v>
       </c>
       <c r="S13">
-        <v>0.004884472626851596</v>
+        <v>0.005231960027424592</v>
       </c>
       <c r="T13">
-        <v>0.004884472626851596</v>
+        <v>0.004674917986437799</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H14">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I14">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J14">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>5.518143266277905</v>
+        <v>6.580028414341666</v>
       </c>
       <c r="R14">
-        <v>5.518143266277905</v>
+        <v>39.48017048605</v>
       </c>
       <c r="S14">
-        <v>2.557401514620488E-05</v>
+        <v>2.910474946671174E-05</v>
       </c>
       <c r="T14">
-        <v>2.557401514620488E-05</v>
+        <v>2.600599317645641E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H15">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I15">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J15">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>21.28056183075566</v>
+        <v>25.57289922465166</v>
       </c>
       <c r="R15">
-        <v>21.28056183075566</v>
+        <v>230.156093021865</v>
       </c>
       <c r="S15">
-        <v>9.862545865841356E-05</v>
+        <v>0.0001131139226463994</v>
       </c>
       <c r="T15">
-        <v>9.862545865841356E-05</v>
+        <v>0.0001516061787717303</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H16">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I16">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J16">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>30.54185294851085</v>
+        <v>35.19680735313166</v>
       </c>
       <c r="R16">
-        <v>30.54185294851085</v>
+        <v>316.771266178185</v>
       </c>
       <c r="S16">
-        <v>0.0001415472147437069</v>
+        <v>0.0001556823459619521</v>
       </c>
       <c r="T16">
-        <v>0.0001415472147437069</v>
+        <v>0.0002086604815862725</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H17">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I17">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J17">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>30.43889114888017</v>
+        <v>34.83094847017278</v>
       </c>
       <c r="R17">
-        <v>30.43889114888017</v>
+        <v>313.478536231555</v>
       </c>
       <c r="S17">
-        <v>0.0001410700349214056</v>
+        <v>0.0001540640807420815</v>
       </c>
       <c r="T17">
-        <v>0.0001410700349214056</v>
+        <v>0.0002064915266028023</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H18">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I18">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J18">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>4.150000107434907</v>
+        <v>5.147465204406667</v>
       </c>
       <c r="R18">
-        <v>4.150000107434907</v>
+        <v>46.32718683966001</v>
       </c>
       <c r="S18">
-        <v>1.923331100388055E-05</v>
+        <v>2.276824289030996E-05</v>
       </c>
       <c r="T18">
-        <v>1.923331100388055E-05</v>
+        <v>3.051619306614495E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H19">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I19">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J19">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>9.944866034535652</v>
+        <v>11.28549994324333</v>
       </c>
       <c r="R19">
-        <v>9.944866034535652</v>
+        <v>67.71299965946</v>
       </c>
       <c r="S19">
-        <v>4.608980635722853E-05</v>
+        <v>4.991796809551458E-05</v>
       </c>
       <c r="T19">
-        <v>4.608980635722853E-05</v>
+        <v>4.460324728647075E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H20">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I20">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J20">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>11.94152886195994</v>
+        <v>13.48225430410833</v>
       </c>
       <c r="R20">
-        <v>11.94152886195994</v>
+        <v>80.89352582465</v>
       </c>
       <c r="S20">
-        <v>5.53434054260428E-05</v>
+        <v>5.963464122925503E-05</v>
       </c>
       <c r="T20">
-        <v>5.53434054260428E-05</v>
+        <v>5.32853950404971E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H21">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I21">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J21">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>46.05216483842803</v>
+        <v>52.39800027133833</v>
       </c>
       <c r="R21">
-        <v>46.05216483842803</v>
+        <v>471.582002442045</v>
       </c>
       <c r="S21">
-        <v>0.0002134302616408671</v>
+        <v>0.0002317665782612849</v>
       </c>
       <c r="T21">
-        <v>0.0002134302616408671</v>
+        <v>0.0003106359011793236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H22">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I22">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J22">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>66.09404665355615</v>
+        <v>72.11706052717832</v>
       </c>
       <c r="R22">
-        <v>66.09404665355615</v>
+        <v>649.053544744605</v>
       </c>
       <c r="S22">
-        <v>0.0003063150173214242</v>
+        <v>0.0003189878290410411</v>
       </c>
       <c r="T22">
-        <v>0.0003063150173214242</v>
+        <v>0.0004275382261013083</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H23">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I23">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J23">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>65.87123234036446</v>
+        <v>71.36742812609056</v>
       </c>
       <c r="R23">
-        <v>65.87123234036446</v>
+        <v>642.306853134815</v>
       </c>
       <c r="S23">
-        <v>0.0003052823771115952</v>
+        <v>0.0003156720586747254</v>
       </c>
       <c r="T23">
-        <v>0.0003052823771115952</v>
+        <v>0.0004230941111492251</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H24">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I24">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J24">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>8.980800908690103</v>
+        <v>10.54698103675334</v>
       </c>
       <c r="R24">
-        <v>8.980800908690103</v>
+        <v>94.92282933078</v>
       </c>
       <c r="S24">
-        <v>4.162181505280337E-05</v>
+        <v>4.66513548840925E-05</v>
       </c>
       <c r="T24">
-        <v>4.162181505280337E-05</v>
+        <v>6.252664113338742E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H25">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I25">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J25">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>21.52117098979135</v>
+        <v>23.12360534069667</v>
       </c>
       <c r="R25">
-        <v>21.52117098979135</v>
+        <v>138.74163204418</v>
       </c>
       <c r="S25">
-        <v>9.974056966234459E-05</v>
+        <v>0.0001022802179305526</v>
       </c>
       <c r="T25">
-        <v>9.974056966234459E-05</v>
+        <v>9.139053585156805E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H26">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I26">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J26">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>3443.255232347782</v>
+        <v>3763.017813586792</v>
       </c>
       <c r="R26">
-        <v>3443.255232347782</v>
+        <v>22578.10688152075</v>
       </c>
       <c r="S26">
-        <v>0.01595787880362666</v>
+        <v>0.01664456196944472</v>
       </c>
       <c r="T26">
-        <v>0.01595787880362666</v>
+        <v>0.0148724305460029</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H27">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I27">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J27">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>13278.81541583731</v>
+        <v>14624.75072564744</v>
       </c>
       <c r="R27">
-        <v>13278.81541583731</v>
+        <v>131622.756530827</v>
       </c>
       <c r="S27">
-        <v>0.06154110362512284</v>
+        <v>0.06468812580738163</v>
       </c>
       <c r="T27">
-        <v>0.06154110362512284</v>
+        <v>0.08670125954538502</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H28">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I28">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J28">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>19057.75002494476</v>
+        <v>20128.51688642264</v>
       </c>
       <c r="R28">
-        <v>19057.75002494476</v>
+        <v>181156.6519778038</v>
       </c>
       <c r="S28">
-        <v>0.08832376476504082</v>
+        <v>0.08903235734346304</v>
       </c>
       <c r="T28">
-        <v>0.08832376476504082</v>
+        <v>0.119329744456628</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H29">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I29">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J29">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>18993.50309654825</v>
+        <v>19919.28777567404</v>
       </c>
       <c r="R29">
-        <v>18993.50309654825</v>
+        <v>179273.5899810664</v>
       </c>
       <c r="S29">
-        <v>0.08802601027759385</v>
+        <v>0.08810689616517871</v>
       </c>
       <c r="T29">
-        <v>0.08802601027759385</v>
+        <v>0.1180893522081877</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H30">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I30">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J30">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>2589.550306077438</v>
+        <v>2943.756780256768</v>
       </c>
       <c r="R30">
-        <v>2589.550306077438</v>
+        <v>26493.81102231091</v>
       </c>
       <c r="S30">
-        <v>0.01200135544761853</v>
+        <v>0.01302081057789464</v>
       </c>
       <c r="T30">
-        <v>0.01200135544761853</v>
+        <v>0.01745174501989537</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H31">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I31">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J31">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>6205.477160709891</v>
+        <v>6454.005157347984</v>
       </c>
       <c r="R31">
-        <v>6205.477160709891</v>
+        <v>38724.0309440879</v>
       </c>
       <c r="S31">
-        <v>0.02875948652280439</v>
+        <v>0.02854732401338304</v>
       </c>
       <c r="T31">
-        <v>0.02875948652280439</v>
+        <v>0.02550791630579894</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H32">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I32">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J32">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>1035.769985754849</v>
+        <v>1094.795146503152</v>
       </c>
       <c r="R32">
-        <v>1035.769985754849</v>
+        <v>4379.18058601261</v>
       </c>
       <c r="S32">
-        <v>0.004800309818984843</v>
+        <v>0.004842492531931445</v>
       </c>
       <c r="T32">
-        <v>0.004800309818984843</v>
+        <v>0.002884611161407083</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H33">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I33">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J33">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>3994.417353930822</v>
+        <v>4254.857910969065</v>
       </c>
       <c r="R33">
-        <v>3994.417353930822</v>
+        <v>25529.14746581439</v>
       </c>
       <c r="S33">
-        <v>0.01851225765267143</v>
+        <v>0.01882006668015293</v>
       </c>
       <c r="T33">
-        <v>0.01851225765267143</v>
+        <v>0.01681631124240728</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H34">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I34">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J34">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>5732.786023648086</v>
+        <v>5856.098399002169</v>
       </c>
       <c r="R34">
-        <v>5732.786023648086</v>
+        <v>35136.59039401302</v>
       </c>
       <c r="S34">
-        <v>0.02656878401376109</v>
+        <v>0.0259026657671998</v>
       </c>
       <c r="T34">
-        <v>0.02656878401376109</v>
+        <v>0.02314483242552149</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H35">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I35">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J35">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>5713.459823404523</v>
+        <v>5795.226240989075</v>
       </c>
       <c r="R35">
-        <v>5713.459823404523</v>
+        <v>34771.35744593445</v>
       </c>
       <c r="S35">
-        <v>0.02647921610769241</v>
+        <v>0.02563341633590438</v>
       </c>
       <c r="T35">
-        <v>0.02647921610769241</v>
+        <v>0.02290424973708289</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H36">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I36">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J36">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>778.9659210968366</v>
+        <v>856.4430983756021</v>
       </c>
       <c r="R36">
-        <v>778.9659210968366</v>
+        <v>5138.658590253613</v>
       </c>
       <c r="S36">
-        <v>0.003610142996150448</v>
+        <v>0.003788214919617512</v>
       </c>
       <c r="T36">
-        <v>0.003610142996150448</v>
+        <v>0.003384887111404287</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H37">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I37">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J37">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>1866.677477163949</v>
+        <v>1877.698664156993</v>
       </c>
       <c r="R37">
-        <v>1866.677477163949</v>
+        <v>7510.794656627972</v>
       </c>
       <c r="S37">
-        <v>0.008651177718745757</v>
+        <v>0.008305427538147846</v>
       </c>
       <c r="T37">
-        <v>0.008651177718745757</v>
+        <v>0.004947437465069941</v>
       </c>
     </row>
   </sheetData>
